--- a/src/test/java/dataEngine/PR Workflow.xlsx
+++ b/src/test/java/dataEngine/PR Workflow.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="277">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -844,6 +844,9 @@
   </si>
   <si>
     <t>TS_176</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -1008,8 +1011,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1308,7 +1339,7 @@
   <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:XFD9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I2" s="23"/>
       <c r="J2" s="27"/>
@@ -1878,7 +1909,7 @@
         <v>9</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="27"/>
@@ -2243,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="27"/>
@@ -4049,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="H111" s="23" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I111" s="23"/>
       <c r="J111" s="27"/>
@@ -4269,7 +4300,7 @@
         <v>9</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I120" s="23"/>
       <c r="J120" s="27"/>
@@ -4938,7 +4969,7 @@
         <v>9</v>
       </c>
       <c r="H146" s="20" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I146" s="23"/>
       <c r="J146" s="27"/>
@@ -5207,7 +5238,7 @@
         <v>9</v>
       </c>
       <c r="H158" s="24" t="s">
-        <v>10</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
